--- a/GERM/GERMttl.xlsx
+++ b/GERM/GERMttl.xlsx
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>

--- a/GERM/GERMttl.xlsx
+++ b/GERM/GERMttl.xlsx
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>

--- a/GERM/GERMttl.xlsx
+++ b/GERM/GERMttl.xlsx
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
